--- a/biology/Botanique/Banksia_blechnifolia/Banksia_blechnifolia.xlsx
+++ b/biology/Botanique/Banksia_blechnifolia/Banksia_blechnifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia blechnifolia est une espèce d'arbustes rampants du genre Banksia. On le trouve dans les sols sablonneux dans la région côtière du sud de l'Australie-Occidentale aux environs du lac King, il est non-lignotubéreux, la régénération se faisant par graines après les feux de brousse. Il doit son nom spécifique au fait que ses feuilles rappellent celles de fougères (Blechnum).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia blechnifolia est un arbuste rampant aux tiges épaisses et aux feuilles verticales hautes d'environ 20 cm. Les parties nouvelles sont recouvertes de poils brun-orange. Les inflorescences sont or ou brun rosâtre et la floraison a lieu en fin de printemps. Lorsqu'elles vieillissent, les fleurs se fanent en devenant brunes puis grises.
 </t>
@@ -542,10 +556,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En culture, quoiqu'un peu résistante au dépérissement, il exige un sol bien drainé, de préférence sablonneux. Il fait un couvre-sol attrayant. Il apprécie les arrosages en été et peut être très vigoureux. Globalement, il est plus facile des Banksia d'Australie-Occidentale à faire pousser en climat humide.
-Les graines ne nécessitent pas de traitement et demandent 14 à 49 jours pour germer[2]. 
+Les graines ne nécessitent pas de traitement et demandent 14 à 49 jours pour germer. 
 </t>
         </is>
       </c>
